--- a/13_PathFinding/AStar.xlsx
+++ b/13_PathFinding/AStar.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>h : 피타고라스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -307,6 +303,54 @@
     <t>f = 91
 g = 60
 h = 36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f = 67
+g = 14
+h = 53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f = 50
+g = 14
+h = 36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f = 64
+g = 14
+h = 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f = 78
+g = 14
+h = 64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f = 61
+g = 24
+h = 31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f = 52
+g = 10
+h = 42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f = 74
+g = 24
+h = 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f = 70
+g = 30
+h = 40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -432,6 +476,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -440,9 +490,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5050"/>
       <color rgb="FFFFCC66"/>
       <color rgb="FFFFFF66"/>
-      <color rgb="FFFF5050"/>
       <color rgb="FFFFFF00"/>
     </mruColors>
   </colors>
@@ -2887,15 +2937,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2917,25 +2967,25 @@
     <row r="4" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2947,16 +2997,16 @@
     <row r="5" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2971,16 +3021,16 @@
     <row r="6" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2"/>
@@ -2995,16 +3045,16 @@
     <row r="7" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
@@ -3019,16 +3069,16 @@
     <row r="8" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="2"/>
@@ -3043,23 +3093,23 @@
     <row r="9" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -3071,23 +3121,23 @@
     <row r="10" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -3100,22 +3150,22 @@
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -3138,6 +3188,11 @@
       <c r="L12" s="1"/>
       <c r="N12" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -3155,81 +3210,135 @@
     </row>
     <row r="17" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="C17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4" t="s">
+      <c r="C19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="4" t="s">
-        <v>11</v>
+      <c r="H22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -3237,26 +3346,50 @@
     </row>
     <row r="23" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="C23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="H23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="1"/>
